--- a/data/trans_dic/P45C_R1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R1-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.009570218508523756</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.02145670475319782</v>
+        <v>0.02145670475319781</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.01046660330273963</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.004871026947362688</v>
+        <v>0.004903341214156491</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.005925603920175981</v>
+        <v>0.005998187211410546</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.004469605220304471</v>
+        <v>0.00381606961976618</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01127853985553514</v>
+        <v>0.01105668579454185</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.005821868217093926</v>
+        <v>0.005989722202018609</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.008501826482684462</v>
+        <v>0.009050934235743022</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.003446990466546338</v>
+        <v>0.003974361741045405</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.006070129091021663</v>
+        <v>0.006001133952689301</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.00668624731605686</v>
+        <v>0.00660794900371741</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.008348224118549798</v>
+        <v>0.00890837451560752</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.005280351407228123</v>
+        <v>0.004994481447410384</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.009594823937742204</v>
+        <v>0.009980629515520017</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01784446034275629</v>
+        <v>0.01931315208262881</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02005332733839953</v>
+        <v>0.02006683878608851</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02043138398462031</v>
+        <v>0.01994625017549463</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03779057896198066</v>
+        <v>0.03766068007746988</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01713408555083226</v>
+        <v>0.01725382756023856</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02215440726630089</v>
+        <v>0.02327068149899379</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01603676389802072</v>
+        <v>0.01672626074947848</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0174949366341252</v>
+        <v>0.01702533179764004</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01558918753531542</v>
+        <v>0.01455228350149768</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01879308242630452</v>
+        <v>0.01828087370589188</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01454822094402568</v>
+        <v>0.01399591469663376</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02236688135264784</v>
+        <v>0.02314617709250815</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.009246572889290337</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.01543092008792589</v>
+        <v>0.0154309200879259</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.02035414051784528</v>
@@ -821,7 +821,7 @@
         <v>0.0123591370388188</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.01535590779772708</v>
+        <v>0.01535590779772707</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.02064933870945663</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01441110871597735</v>
+        <v>0.01482640797074317</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.009355780576126176</v>
+        <v>0.00924158091141344</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005817910401119426</v>
+        <v>0.005656426673672145</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.009980796135446748</v>
+        <v>0.01025536967626163</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01420779355190806</v>
+        <v>0.0141203069146874</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01018907419598005</v>
+        <v>0.009654331821322366</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.007937798064048162</v>
+        <v>0.008251182399683157</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01098609636810508</v>
+        <v>0.01061414266113545</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01629360445611779</v>
+        <v>0.01636742487685738</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01104902199684031</v>
+        <v>0.01093713488249025</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.007845364659450004</v>
+        <v>0.007693234487616804</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01181169573852115</v>
+        <v>0.01167556845830307</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02963598529154353</v>
+        <v>0.02917770933679418</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02066344634917609</v>
+        <v>0.02084128507710623</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01445918312560645</v>
+        <v>0.01487862741469045</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0219921754173894</v>
+        <v>0.02294891897094476</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02819273015374815</v>
+        <v>0.02870390124224506</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02122903809087309</v>
+        <v>0.02107128865781559</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01874207216523754</v>
+        <v>0.01864559844714182</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02089964574319939</v>
+        <v>0.02081401852076117</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0267115962199046</v>
+        <v>0.02703738261067106</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01869661696532465</v>
+        <v>0.01939009211317241</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.014652319016547</v>
+        <v>0.01463478531405801</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01984039039748741</v>
+        <v>0.02023565447115015</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.008506357821219316</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.0189643410210636</v>
+        <v>0.01896434102106359</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.02186525790848434</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.007966538999692376</v>
+        <v>0.007489767032967054</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004305638924760443</v>
+        <v>0.004204671054204471</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001789704317045328</v>
+        <v>0.001789248388732391</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.009320112156590607</v>
+        <v>0.00959586439520786</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01053478754983496</v>
+        <v>0.0103963477489663</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01172809322192861</v>
+        <v>0.01220719327825755</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.003781128495714554</v>
+        <v>0.003578171523336015</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01244945819549665</v>
+        <v>0.01270533370825317</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01174786093793503</v>
+        <v>0.01161614277773978</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01046617933495292</v>
+        <v>0.0105974374183698</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.004454372873243974</v>
+        <v>0.004599457920147509</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01357340112110298</v>
+        <v>0.01264327949560492</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03368363941580822</v>
+        <v>0.03366363900245985</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02782943795655414</v>
+        <v>0.02539105850623904</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02393875749748642</v>
+        <v>0.02599255738383095</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03338113262763327</v>
+        <v>0.03523275944691645</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03993395374054602</v>
+        <v>0.03763921888802359</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04238025252251273</v>
+        <v>0.0426610529215803</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02396619545906982</v>
+        <v>0.02276727376241751</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03296088267243664</v>
+        <v>0.0325788824409969</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03067604932432979</v>
+        <v>0.0298512452252689</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02840142325061206</v>
+        <v>0.02848513888828992</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01834992257451725</v>
+        <v>0.01919270410547476</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02985885693603009</v>
+        <v>0.0288721166038908</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01292901206384162</v>
+        <v>0.01247373330250917</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.009540192119172545</v>
+        <v>0.009349536088868892</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.005972279563808508</v>
+        <v>0.006216238413000553</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01251542611175596</v>
+        <v>0.01270320753910845</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01252723058804069</v>
+        <v>0.01270210593630285</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01210701935273653</v>
+        <v>0.01224187779079916</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.008115395339635734</v>
+        <v>0.007812017962786562</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01211794719041712</v>
+        <v>0.01172241089477607</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01367359626463664</v>
+        <v>0.01392179433862562</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01190115183835969</v>
+        <v>0.01152224275911066</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.007826805117536632</v>
+        <v>0.00782858430253279</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01319845167792636</v>
+        <v>0.01355276229974622</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0218158423528154</v>
+        <v>0.02194451073057407</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01725399572167424</v>
+        <v>0.01784804044906142</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01349862512803786</v>
+        <v>0.01333799413265249</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02265868077826757</v>
+        <v>0.02345018447560624</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02143218670027817</v>
+        <v>0.02124561445018671</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02063274079457313</v>
+        <v>0.02076174441438073</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01482707433447157</v>
+        <v>0.01512376820626958</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01956609055097725</v>
+        <v>0.01930611482749359</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02022537227755782</v>
+        <v>0.02031356930901283</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01739093673468082</v>
+        <v>0.01756289889076494</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01286002047513954</v>
+        <v>0.01272677945969953</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01956306175495413</v>
+        <v>0.02005711991262736</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5010</v>
+        <v>5043</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5726</v>
+        <v>5797</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3336</v>
+        <v>2848</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6514</v>
+        <v>6386</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7643</v>
+        <v>7864</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>11239</v>
+        <v>11965</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3395</v>
+        <v>3915</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4986</v>
+        <v>4930</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>15655</v>
+        <v>15471</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>19103</v>
+        <v>20385</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>9142</v>
+        <v>8647</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>13423</v>
+        <v>13963</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>18352</v>
+        <v>19863</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>19379</v>
+        <v>19392</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15248</v>
+        <v>14886</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>21827</v>
+        <v>21752</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>22495</v>
+        <v>22652</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>29287</v>
+        <v>30762</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>15796</v>
+        <v>16475</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>14371</v>
+        <v>13985</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>36499</v>
+        <v>34072</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>43005</v>
+        <v>41832</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>25187</v>
+        <v>24231</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>31291</v>
+        <v>32382</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>24352</v>
+        <v>25054</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>18248</v>
+        <v>18025</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>11991</v>
+        <v>11658</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>22198</v>
+        <v>22808</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>22487</v>
+        <v>22349</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>17747</v>
+        <v>16815</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>15700</v>
+        <v>16320</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>23816</v>
+        <v>23009</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>53322</v>
+        <v>53563</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>40795</v>
+        <v>40382</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>31686</v>
+        <v>31072</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>51875</v>
+        <v>51277</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>50079</v>
+        <v>49305</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>40303</v>
+        <v>40649</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>29800</v>
+        <v>30664</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>48911</v>
+        <v>51039</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>44621</v>
+        <v>45430</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>36976</v>
+        <v>36701</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>37069</v>
+        <v>36879</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>45306</v>
+        <v>45121</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>87415</v>
+        <v>88481</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>69031</v>
+        <v>71592</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>59178</v>
+        <v>59108</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>87135</v>
+        <v>88871</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4386</v>
+        <v>4124</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2046</v>
+        <v>1998</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>6632</v>
+        <v>6828</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5008</v>
+        <v>4942</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5344</v>
+        <v>5562</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2053</v>
+        <v>1943</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>9149</v>
+        <v>9337</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>12053</v>
+        <v>11918</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>9743</v>
+        <v>9865</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>4829</v>
+        <v>4987</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>19633</v>
+        <v>18288</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18546</v>
+        <v>18535</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13225</v>
+        <v>12067</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12957</v>
+        <v>14069</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>23754</v>
+        <v>25071</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>18985</v>
+        <v>17894</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>19311</v>
+        <v>19439</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>13011</v>
+        <v>12360</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>24222</v>
+        <v>23941</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>31473</v>
+        <v>30627</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>26439</v>
+        <v>26517</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>19894</v>
+        <v>20808</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>43190</v>
+        <v>41762</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>42263</v>
+        <v>40775</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>32361</v>
+        <v>31714</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>19998</v>
+        <v>20815</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>43969</v>
+        <v>44629</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>42229</v>
+        <v>42819</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>42609</v>
+        <v>43083</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>28451</v>
+        <v>27387</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>45129</v>
+        <v>43656</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>90791</v>
+        <v>92439</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>82254</v>
+        <v>79635</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>53647</v>
+        <v>53660</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>95521</v>
+        <v>98085</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>71313</v>
+        <v>71734</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>58526</v>
+        <v>60541</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>45201</v>
+        <v>44663</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>79604</v>
+        <v>82385</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>72248</v>
+        <v>71619</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>72614</v>
+        <v>73068</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>51980</v>
+        <v>53020</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>72866</v>
+        <v>71898</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>134294</v>
+        <v>134879</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>120196</v>
+        <v>121384</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>88147</v>
+        <v>87233</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>141584</v>
+        <v>145159</v>
       </c>
     </row>
     <row r="20">
